--- a/biology/Zoologie/Helix_aspersa/Helix_aspersa.xlsx
+++ b/biology/Zoologie/Helix_aspersa/Helix_aspersa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'escargot petit-gris (Helix aspersa) est une espèce de mollusques gastéropodes terrestres de la famille des Helicidae et du genre Helix.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coquille brun doré portant des bandes brunes interrompues de façon caractéristique. Sa taille est de 30-35 et 32-40 mm.
 </t>
@@ -542,54 +556,232 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les broussailles et les couverts légers en terrain ouvert et dans les dunes. Souvent dans les terrains cultivés.
-Répartition
-Région méditerranéenne, côte atlantique, et jusqu'en Hollande. Introduit depuis l'Antiquité en Grèce, dans les îles britanniques et en Europe centrale. De nos jours mondialement répandu.
-Alimentation
-Il se nourrit d'herbes et peut occasionner quelques dégâts rarement importants dans les jardins.
-Reproduction
-En France il pond entre mai et fin octobre de 50 à 110 œufs d'un diamètre de 4 à 4,5 mm agglomérés par une masse visqueuse. La ponte a lieu 5 à 8 jours après l'accouplement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Région méditerranéenne, côte atlantique, et jusqu'en Hollande. Introduit depuis l'Antiquité en Grèce, dans les îles britanniques et en Europe centrale. De nos jours mondialement répandu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit d'herbes et peut occasionner quelques dégâts rarement importants dans les jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France il pond entre mai et fin octobre de 50 à 110 œufs d'un diamètre de 4 à 4,5 mm agglomérés par une masse visqueuse. La ponte a lieu 5 à 8 jours après l'accouplement.
 L'éclosion se produit en 15 à 30 jours et il atteint sa maturité sexuelle en 2 ans.
 Il peut vivre 4 ans.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Helix_aspersa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helix_aspersa</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par le zoologiste danois Otto Friedrich Müller en  1774[1].
-Synonymes
-Cornu aspersum (Müller, 1774)
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le zoologiste danois Otto Friedrich Müller en  1774.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cornu aspersum (Müller, 1774)
 Cantareus aspersus (Müller, 1774)
-Cryptomphalus aspersus (Müller, 1774)[2]
-Taxinomie
-Liste des sous-espèces :
+Cryptomphalus aspersus (Müller, 1774)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces :
 Helix aspersa aspersa -- Petit-Gris : Europe occidentale, diamètre 28 à 35 mm voire 45 mm, poids adulte de 7 à 15 g
 Helix aspersa elata : Afrique du nord
 Helix aspersa maxima -- Gros-Gris : Algérie, diamètre jusqu'à 40 à 45 mm, poids adulte de 20 à 30 g
@@ -597,31 +789,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Helix_aspersa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helix_aspersa</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_aspersa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Helix aspersa célèbre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Jeremy -- escargot senestre</t>
         </is>
